--- a/output/IBIUNA_17137326000168.xlsx
+++ b/output/IBIUNA_17137326000168.xlsx
@@ -1439,10 +1439,10 @@
         <v>44165</v>
       </c>
       <c r="B96">
-        <v>1.541446199</v>
+        <v>1.54203798</v>
       </c>
       <c r="C96">
-        <v>-0.004226637853096848</v>
+        <v>-0.0039947699676951</v>
       </c>
     </row>
   </sheetData>

--- a/output/IBIUNA_17137326000168.xlsx
+++ b/output/IBIUNA_17137326000168.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IBIUNA HEDGE STHG FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1063 +383,778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41305</v>
       </c>
       <c r="B2">
-        <v>0.004734591000000066</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41333</v>
       </c>
       <c r="B3">
-        <v>-0.0187290040000001</v>
-      </c>
-      <c r="C3">
         <v>-0.0233530279639792</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41364</v>
       </c>
       <c r="B4">
-        <v>-0.006294946000000023</v>
-      </c>
-      <c r="C4">
         <v>0.01267138033294124</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41394</v>
       </c>
       <c r="B5">
-        <v>2.082800000002827e-05</v>
-      </c>
-      <c r="C5">
         <v>0.006355783312741448</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41425</v>
       </c>
       <c r="B6">
-        <v>0.04322805299999999</v>
-      </c>
-      <c r="C6">
         <v>0.04320632509866074</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41455</v>
       </c>
       <c r="B7">
-        <v>0.05353288800000011</v>
-      </c>
-      <c r="C7">
         <v>0.009877835407480218</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41486</v>
       </c>
       <c r="B8">
-        <v>0.06736727599999992</v>
-      </c>
-      <c r="C8">
         <v>0.01313142490146912</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41517</v>
       </c>
       <c r="B9">
-        <v>0.05381787300000007</v>
-      </c>
-      <c r="C9">
         <v>-0.01269422747414251</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41547</v>
       </c>
       <c r="B10">
-        <v>0.00143031799999993</v>
-      </c>
-      <c r="C10">
         <v>-0.04971215268048512</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41578</v>
       </c>
       <c r="B11">
-        <v>0.001105021999999956</v>
-      </c>
-      <c r="C11">
         <v>-0.0003248313878190245</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41608</v>
       </c>
       <c r="B12">
-        <v>0.03117424599999996</v>
-      </c>
-      <c r="C12">
         <v>0.03003603352216522</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41639</v>
       </c>
       <c r="B13">
-        <v>0.05918552899999985</v>
-      </c>
-      <c r="C13">
         <v>0.0271644517002414</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41670</v>
       </c>
       <c r="B14">
-        <v>0.04934724599999996</v>
-      </c>
-      <c r="C14">
         <v>-0.009288536078555065</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41698</v>
       </c>
       <c r="B15">
-        <v>0.05436819700000006</v>
-      </c>
-      <c r="C15">
         <v>0.004784832684451734</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41729</v>
       </c>
       <c r="B16">
-        <v>0.05975766300000007</v>
-      </c>
-      <c r="C16">
         <v>0.00511155971446664</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41759</v>
       </c>
       <c r="B17">
-        <v>0.0602767609999999</v>
-      </c>
-      <c r="C17">
         <v>0.0004898270785136383</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41790</v>
       </c>
       <c r="B18">
-        <v>0.07073677099999998</v>
-      </c>
-      <c r="C18">
         <v>0.009865358163782423</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41820</v>
       </c>
       <c r="B19">
-        <v>0.09945521400000001</v>
-      </c>
-      <c r="C19">
         <v>0.02682119805522221</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41851</v>
       </c>
       <c r="B20">
-        <v>0.1164063120000001</v>
-      </c>
-      <c r="C20">
         <v>0.01541772487332982</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41882</v>
       </c>
       <c r="B21">
-        <v>0.1326023940000001</v>
-      </c>
-      <c r="C21">
         <v>0.0145073364651489</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41912</v>
       </c>
       <c r="B22">
-        <v>0.09835174699999993</v>
-      </c>
-      <c r="C22">
         <v>-0.03024066272634074</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41943</v>
       </c>
       <c r="B23">
-        <v>0.082472879</v>
-      </c>
-      <c r="C23">
         <v>-0.01445699708073567</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41973</v>
       </c>
       <c r="B24">
-        <v>0.09913093599999989</v>
-      </c>
-      <c r="C24">
         <v>0.01538889086568962</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42004</v>
       </c>
       <c r="B25">
-        <v>0.1109642209999999</v>
-      </c>
-      <c r="C25">
         <v>0.01076603761428485</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42035</v>
       </c>
       <c r="B26">
-        <v>0.1676045499999999</v>
-      </c>
-      <c r="C26">
         <v>0.05098303611345556</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42063</v>
       </c>
       <c r="B27">
-        <v>0.200564306</v>
-      </c>
-      <c r="C27">
         <v>0.0282285265161053</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42094</v>
       </c>
       <c r="B28">
-        <v>0.2746874579999998</v>
-      </c>
-      <c r="C28">
         <v>0.06174025966752317</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42124</v>
       </c>
       <c r="B29">
-        <v>0.2197854619999999</v>
-      </c>
-      <c r="C29">
         <v>-0.0430709470430829</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42155</v>
       </c>
       <c r="B30">
-        <v>0.2418140150000001</v>
-      </c>
-      <c r="C30">
         <v>0.01805936673805042</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42185</v>
       </c>
       <c r="B31">
-        <v>0.2186845180000001</v>
-      </c>
-      <c r="C31">
         <v>-0.0186255725258504</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42216</v>
       </c>
       <c r="B32">
-        <v>0.272565806</v>
-      </c>
-      <c r="C32">
         <v>0.04421266308398275</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42247</v>
       </c>
       <c r="B33">
-        <v>0.2798781800000001</v>
-      </c>
-      <c r="C33">
         <v>0.005746165711449258</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42277</v>
       </c>
       <c r="B34">
-        <v>0.3056673699999999</v>
-      </c>
-      <c r="C34">
         <v>0.02014972237435897</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42308</v>
       </c>
       <c r="B35">
-        <v>0.2978404800000001</v>
-      </c>
-      <c r="C35">
         <v>-0.005994551276869098</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42338</v>
       </c>
       <c r="B36">
-        <v>0.3169206740000001</v>
-      </c>
-      <c r="C36">
         <v>0.0147014939771335</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42369</v>
       </c>
       <c r="B37">
-        <v>0.3180704089999999</v>
-      </c>
-      <c r="C37">
         <v>0.0008730480299223853</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42400</v>
       </c>
       <c r="B38">
-        <v>0.3468151320000001</v>
-      </c>
-      <c r="C38">
         <v>0.02180818475532598</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42429</v>
       </c>
       <c r="B39">
-        <v>0.353367921</v>
-      </c>
-      <c r="C39">
         <v>0.004865396032690095</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42460</v>
       </c>
       <c r="B40">
-        <v>0.3337550540000001</v>
-      </c>
-      <c r="C40">
         <v>-0.01449189588113486</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42490</v>
       </c>
       <c r="B41">
-        <v>0.4026256620000002</v>
-      </c>
-      <c r="C41">
         <v>0.05163662382643164</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42521</v>
       </c>
       <c r="B42">
-        <v>0.3807249179999999</v>
-      </c>
-      <c r="C42">
         <v>-0.01561410474179692</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42551</v>
       </c>
       <c r="B43">
-        <v>0.444190664</v>
-      </c>
-      <c r="C43">
         <v>0.0459655251908766</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42582</v>
       </c>
       <c r="B44">
-        <v>0.480298431</v>
-      </c>
-      <c r="C44">
         <v>0.02500207756501616</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42613</v>
       </c>
       <c r="B45">
-        <v>0.4963076849999999</v>
-      </c>
-      <c r="C45">
         <v>0.0108148827727832</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42643</v>
       </c>
       <c r="B46">
-        <v>0.529762614</v>
-      </c>
-      <c r="C46">
         <v>0.02235832197841048</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42674</v>
       </c>
       <c r="B47">
-        <v>0.5480194430000001</v>
-      </c>
-      <c r="C47">
         <v>0.0119344196497666</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42704</v>
       </c>
       <c r="B48">
-        <v>0.465833092</v>
-      </c>
-      <c r="C48">
         <v>-0.0530912911796031</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42735</v>
       </c>
       <c r="B49">
-        <v>0.5068441960000001</v>
-      </c>
-      <c r="C49">
         <v>0.02797801756818297</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42766</v>
       </c>
       <c r="B50">
-        <v>0.542931082</v>
-      </c>
-      <c r="C50">
         <v>0.02394865115835754</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42794</v>
       </c>
       <c r="B51">
-        <v>0.6019351459999998</v>
-      </c>
-      <c r="C51">
         <v>0.03824154214556152</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42825</v>
       </c>
       <c r="B52">
-        <v>0.6377007180000001</v>
-      </c>
-      <c r="C52">
         <v>0.02232647937671284</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42855</v>
       </c>
       <c r="B53">
-        <v>0.646499106</v>
-      </c>
-      <c r="C53">
         <v>0.005372402847050539</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42886</v>
       </c>
       <c r="B54">
-        <v>0.5909012419999999</v>
-      </c>
-      <c r="C54">
         <v>-0.0337673210980779</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42916</v>
       </c>
       <c r="B55">
-        <v>0.6410223289999999</v>
-      </c>
-      <c r="C55">
         <v>0.031504838689415</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42947</v>
       </c>
       <c r="B56">
-        <v>0.7279896219999999</v>
-      </c>
-      <c r="C56">
         <v>0.05299580113147884</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42978</v>
       </c>
       <c r="B57">
-        <v>0.7475307680000001</v>
-      </c>
-      <c r="C57">
         <v>0.01130860148186708</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43008</v>
       </c>
       <c r="B58">
-        <v>0.8077059070000001</v>
-      </c>
-      <c r="C58">
         <v>0.03443438027066548</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43039</v>
       </c>
       <c r="B59">
-        <v>0.7850709470000001</v>
-      </c>
-      <c r="C59">
         <v>-0.01252137303548684</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43069</v>
       </c>
       <c r="B60">
-        <v>0.786925324</v>
-      </c>
-      <c r="C60">
         <v>0.001038825377286168</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43100</v>
       </c>
       <c r="B61">
-        <v>0.8306568050000001</v>
-      </c>
-      <c r="C61">
         <v>0.02447303220377894</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43131</v>
       </c>
       <c r="B62">
-        <v>0.9275569350000001</v>
-      </c>
-      <c r="C62">
         <v>0.05293189293336731</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43159</v>
       </c>
       <c r="B63">
-        <v>0.9614688300000001</v>
-      </c>
-      <c r="C63">
         <v>0.01759320017180199</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43190</v>
       </c>
       <c r="B64">
-        <v>0.9935867730000001</v>
-      </c>
-      <c r="C64">
         <v>0.01637443456085919</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43220</v>
       </c>
       <c r="B65">
-        <v>0.9805928530000001</v>
-      </c>
-      <c r="C65">
         <v>-0.006517860258696606</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43251</v>
       </c>
       <c r="B66">
-        <v>0.9017814569999998</v>
-      </c>
-      <c r="C66">
         <v>-0.0397918208583985</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43281</v>
       </c>
       <c r="B67">
-        <v>0.9374523379999999</v>
-      </c>
-      <c r="C67">
         <v>0.01875656157478245</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43312</v>
       </c>
       <c r="B68">
-        <v>0.9364228159999999</v>
-      </c>
-      <c r="C68">
         <v>-0.000531379265341192</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43343</v>
       </c>
       <c r="B69">
-        <v>0.9100168009999998</v>
-      </c>
-      <c r="C69">
         <v>-0.01363649239299192</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43373</v>
       </c>
       <c r="B70">
-        <v>0.9187645610000001</v>
-      </c>
-      <c r="C70">
         <v>0.004579938770915781</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43404</v>
       </c>
       <c r="B71">
-        <v>0.939711492</v>
-      </c>
-      <c r="C71">
         <v>0.01091688445042105</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43434</v>
       </c>
       <c r="B72">
-        <v>0.916842844</v>
-      </c>
-      <c r="C72">
         <v>-0.01178971619971203</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43465</v>
       </c>
       <c r="B73">
-        <v>0.941599407</v>
-      </c>
-      <c r="C73">
         <v>0.01291528049755963</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43496</v>
       </c>
       <c r="B74">
-        <v>1.014666947</v>
-      </c>
-      <c r="C74">
         <v>0.03763265467457999</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43524</v>
       </c>
       <c r="B75">
-        <v>0.995677419</v>
-      </c>
-      <c r="C75">
         <v>-0.009425641309238397</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43555</v>
       </c>
       <c r="B76">
-        <v>0.9836824690000001</v>
-      </c>
-      <c r="C76">
         <v>-0.006010465361686701</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43585</v>
       </c>
       <c r="B77">
-        <v>0.9884114149999998</v>
-      </c>
-      <c r="C77">
         <v>0.002383922867646993</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43616</v>
       </c>
       <c r="B78">
-        <v>1.003991929</v>
-      </c>
-      <c r="C78">
         <v>0.007835659100760228</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43646</v>
       </c>
       <c r="B79">
-        <v>1.097907132</v>
-      </c>
-      <c r="C79">
         <v>0.04686406249493436</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43677</v>
       </c>
       <c r="B80">
-        <v>1.138295985</v>
-      </c>
-      <c r="C80">
         <v>0.01925197373322063</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43708</v>
       </c>
       <c r="B81">
-        <v>1.159860691</v>
-      </c>
-      <c r="C81">
         <v>0.01008499578696065</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43738</v>
       </c>
       <c r="B82">
-        <v>1.180415446</v>
-      </c>
-      <c r="C82">
         <v>0.009516704056724778</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43769</v>
       </c>
       <c r="B83">
-        <v>1.223012613</v>
-      </c>
-      <c r="C83">
         <v>0.01953626180650336</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43799</v>
       </c>
       <c r="B84">
-        <v>1.188035943</v>
-      </c>
-      <c r="C84">
         <v>-0.01573390532984786</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43830</v>
       </c>
       <c r="B85">
-        <v>1.257420823</v>
-      </c>
-      <c r="C85">
         <v>0.03171103300289801</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43861</v>
       </c>
       <c r="B86">
-        <v>1.261617787</v>
-      </c>
-      <c r="C86">
         <v>0.001859185472747882</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43890</v>
       </c>
       <c r="B87">
-        <v>1.309691369</v>
-      </c>
-      <c r="C87">
         <v>0.02125628047158612</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43921</v>
       </c>
       <c r="B88">
-        <v>1.384427934</v>
-      </c>
-      <c r="C88">
         <v>0.03235781455613185</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43951</v>
       </c>
       <c r="B89">
-        <v>1.450732217</v>
-      </c>
-      <c r="C89">
         <v>0.02780720778118506</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43982</v>
       </c>
       <c r="B90">
-        <v>1.465999679</v>
-      </c>
-      <c r="C90">
         <v>0.006229755292762595</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>44012</v>
       </c>
       <c r="B91">
-        <v>1.489085271</v>
-      </c>
-      <c r="C91">
         <v>0.009361555152092249</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>44043</v>
       </c>
       <c r="B92">
-        <v>1.558627817</v>
-      </c>
-      <c r="C92">
         <v>0.02793899703245639</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>44074</v>
       </c>
       <c r="B93">
-        <v>1.576987412</v>
-      </c>
-      <c r="C93">
         <v>0.007175562963090965</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>44104</v>
       </c>
       <c r="B94">
-        <v>1.548511886</v>
-      </c>
-      <c r="C94">
         <v>-0.01104992824854345</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>44135</v>
       </c>
       <c r="B95">
-        <v>1.552233566</v>
-      </c>
-      <c r="C95">
         <v>0.00146033456639727</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>44165</v>
       </c>
       <c r="B96">
-        <v>1.54203798</v>
-      </c>
-      <c r="C96">
-        <v>-0.0039947699676951</v>
+        <v>-0.006782492884117142</v>
       </c>
     </row>
   </sheetData>
